--- a/Tool/01_data/plot/plot_excel.xlsx
+++ b/Tool/01_data/plot/plot_excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FAIR_UPC\Version_Final\01_data\plot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FAIR_UPC\Tool\01_data\plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2C7668-3EB6-4362-B6A1-236CD97EA650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EE6E96-0626-489D-AFC3-EABCFDDEDB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56932B71-1BEB-462E-BA43-21BFE6F0F355}"/>
+    <workbookView xWindow="29490" yWindow="0" windowWidth="25455" windowHeight="15600" activeTab="1" xr2:uid="{56932B71-1BEB-462E-BA43-21BFE6F0F355}"/>
   </bookViews>
   <sheets>
     <sheet name="main_plot" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="237">
   <si>
     <t>converter</t>
   </si>
@@ -755,6 +755,12 @@
   </si>
   <si>
     <t>[1,1,710,700]</t>
+  </si>
+  <si>
+    <t>All_sim_test</t>
+  </si>
+  <si>
+    <t>All_sim</t>
   </si>
 </sst>
 </file>
@@ -1350,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9D90FB-07C9-4AFE-9175-314EAF0B7A3B}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,7 +1798,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1839,7 +1845,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1881,6 +1887,53 @@
         <v>2000</v>
       </c>
       <c r="O11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12">
+        <v>0.1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1897,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A778B0E-301E-44B7-BB58-226934549726}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2625,7 +2678,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3350,7 +3403,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A2" sqref="A2:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4076,7 +4129,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H27" sqref="A2:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
